--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/ColateralClientesInternos.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/ColateralClientesInternos.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maricela BF\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\QuskiBre\Matrices\Matrices v2\Produccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F29B5EF-011A-42BC-BE57-79B567C0832A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
+    <workbookView xWindow="444" yWindow="7632" windowWidth="22944" windowHeight="5052" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATRIZDECISON" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MATRIZDECISON!$A$7:$F$28</definedName>
-  </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="42">
   <si>
     <t>RuleSet</t>
   </si>
@@ -39,7 +45,7 @@
     <t>cliente:Cliente</t>
   </si>
   <si>
-    <t>AAA</t>
+    <t>AA</t>
   </si>
   <si>
     <t>RULEFLOW-GROUP</t>
@@ -66,22 +72,7 @@
     <t>Q5</t>
   </si>
   <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
-  </si>
-  <si>
-    <t>Q8</t>
-  </si>
-  <si>
-    <t>Q9</t>
-  </si>
-  <si>
-    <t>Q10</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>B</t>
   </si>
   <si>
     <t>cliente.getCalificacionWebMupi()=="$param"</t>
@@ -126,14 +117,50 @@
     <t>N</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>CARTERA ATRASADA</t>
+  </si>
+  <si>
+    <t>CARTERA CASTIGADA</t>
+  </si>
+  <si>
+    <t>cliente.getMontoCarteraVencida()&gt;=$param</t>
+  </si>
+  <si>
+    <t>cliente.getMontoCarteraCastigada()&gt;=$param</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
     <t>B+</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>D+</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>cliente.getTiempoCancelacion()&gt;=$param</t>
+  </si>
+  <si>
+    <t>cliente.getTiempoCancelacion()&lt;=$param</t>
+  </si>
+  <si>
+    <t>TIEMPO CANCELACION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -179,6 +206,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -235,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -284,21 +318,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -307,7 +352,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -319,9 +364,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,16 +373,28 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -436,8 +490,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>165525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>182460</xdr:rowOff>
     </xdr:to>
@@ -446,7 +500,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -493,8 +547,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>165525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>182460</xdr:rowOff>
     </xdr:to>
@@ -503,7 +557,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -550,8 +604,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>165525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>182460</xdr:rowOff>
     </xdr:to>
@@ -560,7 +614,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -607,8 +661,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>165525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>182460</xdr:rowOff>
     </xdr:to>
@@ -617,7 +671,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -664,8 +718,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>165525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>182460</xdr:rowOff>
     </xdr:to>
@@ -674,7 +728,7 @@
         <xdr:cNvPr id="6" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -721,8 +775,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>165525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>182460</xdr:rowOff>
     </xdr:to>
@@ -731,7 +785,7 @@
         <xdr:cNvPr id="7" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -778,8 +832,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>165525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>182460</xdr:rowOff>
     </xdr:to>
@@ -788,7 +842,7 @@
         <xdr:cNvPr id="8" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -835,8 +889,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>165525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>182460</xdr:rowOff>
     </xdr:to>
@@ -845,7 +899,7 @@
         <xdr:cNvPr id="9" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -892,8 +946,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>165525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>182460</xdr:rowOff>
     </xdr:to>
@@ -902,7 +956,7 @@
         <xdr:cNvPr id="10" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -949,8 +1003,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>165525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>182460</xdr:rowOff>
     </xdr:to>
@@ -959,7 +1013,7 @@
         <xdr:cNvPr id="11" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1006,8 +1060,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>165525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>182460</xdr:rowOff>
     </xdr:to>
@@ -1016,7 +1070,7 @@
         <xdr:cNvPr id="12" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1063,8 +1117,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>165525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>182460</xdr:rowOff>
     </xdr:to>
@@ -1073,7 +1127,7 @@
         <xdr:cNvPr id="13" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1120,8 +1174,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>165525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>182460</xdr:rowOff>
     </xdr:to>
@@ -1130,7 +1184,7 @@
         <xdr:cNvPr id="14" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1177,8 +1231,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>165525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>182460</xdr:rowOff>
     </xdr:to>
@@ -1187,7 +1241,7 @@
         <xdr:cNvPr id="15" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1234,8 +1288,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>165525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>182460</xdr:rowOff>
     </xdr:to>
@@ -1244,7 +1298,7 @@
         <xdr:cNvPr id="16" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1291,9 +1345,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1301,7 +1355,7 @@
         <xdr:cNvPr id="1054" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,9 +1394,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1350,7 +1404,7 @@
         <xdr:cNvPr id="1052" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1389,9 +1443,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1399,7 +1453,7 @@
         <xdr:cNvPr id="1050" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1438,9 +1492,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1448,7 +1502,7 @@
         <xdr:cNvPr id="1048" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,9 +1541,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1497,7 +1551,7 @@
         <xdr:cNvPr id="1046" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1536,9 +1590,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1546,7 +1600,7 @@
         <xdr:cNvPr id="1044" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1585,9 +1639,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1595,7 +1649,7 @@
         <xdr:cNvPr id="1042" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,9 +1688,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1644,7 +1698,7 @@
         <xdr:cNvPr id="1040" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1683,9 +1737,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1693,7 +1747,7 @@
         <xdr:cNvPr id="1038" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,9 +1786,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1742,7 +1796,7 @@
         <xdr:cNvPr id="1036" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,9 +1835,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1791,7 +1845,7 @@
         <xdr:cNvPr id="1034" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1830,9 +1884,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1840,7 +1894,7 @@
         <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,9 +1933,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1889,7 +1943,7 @@
         <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1928,9 +1982,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1938,7 +1992,7 @@
         <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,9 +2031,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1987,7 +2041,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2015,6 +2069,861 @@
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410AA9D8-2B47-4E93-8D7F-0BCBF7EABA9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10131589" cy="9692220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73DABF2-5D04-4C28-8F10-936E0147E77E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10131589" cy="9692220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6EC1E1-34D9-43AD-8A34-504A374D63BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10131589" cy="9692220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9AE9BA9-8039-4F66-9F17-96CDEB10DB67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10131589" cy="9692220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D229FF5A-F545-47FA-A833-31EB785EA926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10131589" cy="9692220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF93739-47F6-4136-B9E9-8F54280ECED8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10131589" cy="9692220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7FFA852-EFD9-40B6-A483-38B87706593F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10131589" cy="9692220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6E7D280-3479-4C35-863D-01B2CA5D2941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10131589" cy="9692220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D2C35C-796F-4209-A97E-37B353F7A99E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10131589" cy="9692220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4710DC17-63FE-4F34-82F3-13A994FD5F26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10131589" cy="9692220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83501E5E-2A16-49A5-88C5-146084128B68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10131589" cy="9692220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F26EFD3-8C64-4558-891E-06E6E25E4B6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10131589" cy="9692220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43E7429-2418-456E-B097-E3C303125CDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10131589" cy="9692220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1DC932-F427-496C-BA11-80AB02B02D72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10131589" cy="9692220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210349</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431332B1-3D0A-4F3D-A4D3-4BB4F5363AB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10131589" cy="9692220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2097,6 +3006,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2132,6 +3058,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2307,20 +3250,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="E46" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58:J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="1023" width="10.7109375" customWidth="1"/>
+    <col min="1" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="1027" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2329,38 +3272,56 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -2372,459 +3333,1639 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="16"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
+      <c r="C7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="F8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="H8" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="I8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>365</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>80</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>365</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>90</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>365</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12">
+        <v>105</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>365</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
+        <v>105</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>365</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>90</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <v>365</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>100</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>365</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1</v>
+      </c>
+      <c r="I15" s="12">
+        <v>110</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11">
+        <v>365</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1</v>
+      </c>
+      <c r="I16" s="12">
+        <v>110</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11">
+        <v>365</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>110</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11">
+        <v>365</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>115</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0</v>
+      </c>
+      <c r="D19" s="11">
+        <v>365</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12">
+        <v>120</v>
+      </c>
+      <c r="J19" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="12" t="s">
+    </row>
+    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11">
+        <v>365</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1</v>
+      </c>
+      <c r="I20" s="12">
+        <v>120</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11">
+        <v>365</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>120</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0</v>
+      </c>
+      <c r="D22" s="11">
+        <v>365</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <v>125</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0</v>
+      </c>
+      <c r="D23" s="11">
+        <v>365</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>1</v>
+      </c>
+      <c r="I23" s="12">
+        <v>140</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11">
+        <v>365</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11">
+        <v>1</v>
+      </c>
+      <c r="I24" s="12">
+        <v>140</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0</v>
+      </c>
+      <c r="D25" s="11">
+        <v>365</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <v>125</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11">
+        <v>365</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12">
+        <v>135</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0</v>
+      </c>
+      <c r="D27" s="11">
+        <v>365</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>1</v>
+      </c>
+      <c r="I27" s="12">
+        <v>140</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0</v>
+      </c>
+      <c r="D28" s="11">
+        <v>365</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="11">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11">
+        <v>1</v>
+      </c>
+      <c r="I28" s="12">
+        <v>140</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0</v>
+      </c>
+      <c r="D29" s="11">
+        <v>365</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="13">
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
         <v>80</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="J29" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0</v>
+      </c>
+      <c r="D30" s="11">
+        <v>365</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="12">
+        <v>90</v>
+      </c>
+      <c r="J30" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="31" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="11">
+        <v>0</v>
+      </c>
+      <c r="D31" s="11">
+        <v>365</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1</v>
+      </c>
+      <c r="I31" s="12">
+        <v>105</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0</v>
+      </c>
+      <c r="D32" s="11">
+        <v>365</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1</v>
+      </c>
+      <c r="I32" s="12">
+        <v>105</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0</v>
+      </c>
+      <c r="D33" s="11">
+        <v>365</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="12">
+        <v>90</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0</v>
+      </c>
+      <c r="D34" s="11">
+        <v>365</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="11">
+        <v>1</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
+        <v>100</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0</v>
+      </c>
+      <c r="D35" s="11">
+        <v>365</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
+        <v>1</v>
+      </c>
+      <c r="I35" s="12">
+        <v>110</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0</v>
+      </c>
+      <c r="D36" s="11">
+        <v>365</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="11">
+        <v>1</v>
+      </c>
+      <c r="H36" s="11">
+        <v>1</v>
+      </c>
+      <c r="I36" s="12">
+        <v>110</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0</v>
+      </c>
+      <c r="D37" s="11">
+        <v>365</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
+        <v>110</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0</v>
+      </c>
+      <c r="D38" s="11">
+        <v>365</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="11">
+        <v>1</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
+        <v>115</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="11">
+        <v>0</v>
+      </c>
+      <c r="D39" s="11">
+        <v>365</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
+        <v>1</v>
+      </c>
+      <c r="I39" s="12">
+        <v>120</v>
+      </c>
+      <c r="J39" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="12" t="s">
+    </row>
+    <row r="40" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0</v>
+      </c>
+      <c r="D40" s="11">
+        <v>365</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="11">
+        <v>1</v>
+      </c>
+      <c r="H40" s="11">
+        <v>1</v>
+      </c>
+      <c r="I40" s="12">
+        <v>120</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="11">
+        <v>0</v>
+      </c>
+      <c r="D41" s="11">
+        <v>365</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="11">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0</v>
+      </c>
+      <c r="I41" s="12">
+        <v>120</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="11">
+        <v>0</v>
+      </c>
+      <c r="D42" s="11">
+        <v>365</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="11">
+        <v>1</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="12">
+        <v>125</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="11">
+        <v>0</v>
+      </c>
+      <c r="D43" s="11">
+        <v>365</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11">
+        <v>1</v>
+      </c>
+      <c r="I43" s="12">
+        <v>140</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="11">
+        <v>0</v>
+      </c>
+      <c r="D44" s="11">
+        <v>365</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="11">
+        <v>1</v>
+      </c>
+      <c r="H44" s="11">
+        <v>1</v>
+      </c>
+      <c r="I44" s="12">
+        <v>140</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0</v>
+      </c>
+      <c r="D45" s="11">
+        <v>365</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="11">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="12">
+        <v>125</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0</v>
+      </c>
+      <c r="D46" s="11">
+        <v>365</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="11">
+        <v>1</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="12">
+        <v>135</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="11">
+        <v>0</v>
+      </c>
+      <c r="D47" s="11">
+        <v>365</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0</v>
+      </c>
+      <c r="H47" s="11">
+        <v>1</v>
+      </c>
+      <c r="I47" s="12">
+        <v>0</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="11">
+        <v>0</v>
+      </c>
+      <c r="D48" s="11">
+        <v>365</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="11">
+        <v>1</v>
+      </c>
+      <c r="H48" s="11">
+        <v>1</v>
+      </c>
+      <c r="I48" s="12">
+        <v>0</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="11">
+        <v>366</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="12">
+        <v>80</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="11">
+        <v>366</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="13">
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="12">
+        <v>90</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="11">
+        <v>366</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="12">
+        <v>110</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="11">
+        <v>366</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="12">
+        <v>120</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="11">
+        <v>366</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="12">
+        <v>125</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="11">
+        <v>366</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="12">
         <v>80</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="J54" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="11">
+        <v>366</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="12">
+        <v>90</v>
+      </c>
+      <c r="J55" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="56" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="11">
+        <v>366</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="12">
+        <v>110</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="11">
+        <v>366</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="12">
+        <v>120</v>
+      </c>
+      <c r="J57" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="13">
-        <v>80</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="13">
-        <v>80</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="12" t="s">
+    </row>
+    <row r="58" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="11">
+        <v>366</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="13">
-        <v>105</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="13">
-        <v>120</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="13">
-        <v>120</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="13">
-        <v>120</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="12">
         <v>125</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="13">
-        <v>125</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="13">
-        <v>80</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="13">
-        <v>80</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="13">
-        <v>80</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="13">
-        <v>80</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="13">
-        <v>105</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="13">
-        <v>120</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="13">
-        <v>120</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="13">
-        <v>120</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="13">
-        <v>125</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="13">
-        <v>125</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>19</v>
+      <c r="J58" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
